--- a/my_spot/요구사항명세서/나만의 여행지도 요구사항 명세서.xlsx
+++ b/my_spot/요구사항명세서/나만의 여행지도 요구사항 명세서.xlsx
@@ -48,21 +48,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="189">
   <si>
     <t>겟</t>
-  </si>
-  <si>
-    <t>my spot메뉴
-&lt;여행 게시글 관련&gt;
-- 여행정보 등록 / 활동정보 등록
-- 여행지 확인(list, map)
-- 여행정보 수정 / 활동정보 수정
-- 여행정보 삭제/ 활동정보 삭제
-- 삭제 대기 리스트
-- 영구 삭제
-&lt;트립메이트&gt;
-- 트립메이트 제안, 수락, 삭제</t>
   </si>
   <si>
     <t>삭제 대기 리스트에 있는 정보를 영구적으로 삭제하는 기능
@@ -591,23 +579,6 @@
   <si>
     <t>트립매니저 or 트립파트너는 이벤트 게시판에 이벤트 게시글을 작성한다.
 - 관리자는 게시글 작성/수정 시 해당 게시글에 신청 댓글을 작성할 수 있는 회원 등급을 결정한다.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">트립매니저(슈퍼관리자)는 회원권한설정 페이지에서 회원의 등급을 관리한다.
-- 회원등급 : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>{ 트립파트너, 트립서포터, 트립마스터, 트립시니어, 트립주니어, 트립비기너 }</t>
-    </r>
   </si>
   <si>
     <t>트립매니저 or 트립파트너는 공지사항 게시글을 작성한다.
@@ -1353,6 +1324,49 @@
 - 탈퇴한 회원들의 목록을 출력한다. { 탈퇴한회원아이디, 탈퇴날짜, 탈퇴당시등급 }
 - 회원아이디or이름or이메일로 검색이 가능하다.
 - 각 tr 우측에 [영구삭제] 버튼을 클릭하면 정보보관기간에 상관없이 회원을 즉시탈퇴시키고, 해당 회원이 작성했던 게시글과 댓글이 모두 한꺼번에 영구삭제된다.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>my spot메뉴
+&lt;여행 게시글 관련&gt;
+- 여행정보 등록 / 활동정보 등록
+- 여행지 확인(list, map)
+- 여행정보 수정 / 활동정보 수정
+- 여행정보 삭제/ 활동정보 삭제
+- 삭제 대기 리스트
+- 영구 삭제
+&lt;트립메이트&gt;
+- 트립메이트 제안, 수락, 삭제</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등급</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">트립매니저(슈퍼관리자)는 회원권한설정 페이지에서 회원의 등급을 관리한다.
+- 회원등급 : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>{ 트립파트너, 트립서포터, 트립마스터, 트립시니어, 트립주니어, 트립비기너 }</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원등급 : { 트립파트너, 트립서포터, 트립마스터, 트립시니어, 트립주니어, 트립비기너 }
+- 트립비기너 : 여행등록 0개이상 or 활동등록 0개 이상, 출석 0회 이상
+- 트립주니어 : 여행등록 10개이상 or 활동등록 20개 이상, 출석 10회 이상
+- 트립시니어 : 여행등록 50개이상 or 활동등록 100개 이상, 출석 20회 이상
+- 트립마스터 : 여행등록 100개이상 or 활동등록 200개 이상, 출석 50회 이상</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1891,8 +1905,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1924,44 +1938,44 @@
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="9"/>
@@ -1971,17 +1985,17 @@
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" ht="72.75" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="9"/>
@@ -1992,16 +2006,16 @@
     <row r="5" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="9"/>
@@ -2012,16 +2026,16 @@
     <row r="6" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="9"/>
@@ -2032,16 +2046,16 @@
     <row r="7" spans="1:10" s="6" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>173</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>175</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="9"/>
@@ -2052,16 +2066,16 @@
     <row r="8" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="9"/>
@@ -2072,14 +2086,14 @@
     <row r="9" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="9"/>
@@ -2090,14 +2104,14 @@
     <row r="10" spans="1:10" s="6" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="9"/>
@@ -2108,14 +2122,14 @@
     <row r="11" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="15"/>
       <c r="B11" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="9"/>
@@ -2126,14 +2140,14 @@
     <row r="12" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="9"/>
@@ -2144,16 +2158,16 @@
     <row r="13" spans="1:10" s="6" customFormat="1" ht="96.75" x14ac:dyDescent="0.2">
       <c r="A13" s="15"/>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="9"/>
@@ -2164,16 +2178,16 @@
     <row r="14" spans="1:10" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="15"/>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="9"/>
@@ -2184,16 +2198,16 @@
     <row r="15" spans="1:10" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
       <c r="B15" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="9"/>
@@ -2204,16 +2218,16 @@
     <row r="16" spans="1:10" s="6" customFormat="1" ht="132" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
       <c r="B16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="9"/>
@@ -2224,16 +2238,16 @@
     <row r="17" spans="1:10" s="6" customFormat="1" ht="96.75" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="9"/>
@@ -2244,16 +2258,16 @@
     <row r="18" spans="1:10" s="6" customFormat="1" ht="108.75" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="9"/>
@@ -2264,16 +2278,16 @@
     <row r="19" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="9"/>
@@ -2284,16 +2298,16 @@
     <row r="20" spans="1:10" s="6" customFormat="1" ht="216" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="9"/>
@@ -2304,16 +2318,16 @@
     <row r="21" spans="1:10" s="6" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="9"/>
@@ -2324,16 +2338,16 @@
     <row r="22" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="9"/>
@@ -2343,19 +2357,19 @@
     </row>
     <row r="23" spans="1:10" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="9"/>
@@ -2366,14 +2380,14 @@
     <row r="24" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A24" s="15"/>
       <c r="B24" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="9"/>
@@ -2384,14 +2398,14 @@
     <row r="25" spans="1:10" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="15"/>
       <c r="B25" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="9"/>
@@ -2402,14 +2416,14 @@
     <row r="26" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A26" s="15"/>
       <c r="B26" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="9"/>
@@ -2420,14 +2434,14 @@
     <row r="27" spans="1:10" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A27" s="15"/>
       <c r="B27" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="9"/>
@@ -2438,14 +2452,14 @@
     <row r="28" spans="1:10" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
       <c r="B28" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="9"/>
@@ -2456,14 +2470,14 @@
     <row r="29" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="10"/>
@@ -2474,14 +2488,14 @@
     <row r="30" spans="1:10" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A30" s="15"/>
       <c r="B30" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="9"/>
@@ -2492,14 +2506,14 @@
     <row r="31" spans="1:10" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="9"/>
@@ -2510,14 +2524,14 @@
     <row r="32" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="15"/>
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="9"/>
@@ -2528,14 +2542,14 @@
     <row r="33" spans="1:10" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
       <c r="B33" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="9"/>
@@ -2546,14 +2560,14 @@
     <row r="34" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A34" s="15"/>
       <c r="B34" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="9"/>
@@ -2564,14 +2578,14 @@
     <row r="35" spans="1:10" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="10"/>
@@ -2582,7 +2596,7 @@
     <row r="36" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2596,7 +2610,7 @@
     <row r="37" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="9"/>
@@ -2610,7 +2624,7 @@
     <row r="38" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="9"/>
@@ -2624,14 +2638,14 @@
     <row r="39" spans="1:10" s="6" customFormat="1" ht="108" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="9"/>
@@ -2642,7 +2656,7 @@
     <row r="40" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -2656,7 +2670,7 @@
     <row r="41" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -2670,7 +2684,7 @@
     <row r="42" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2684,7 +2698,7 @@
     <row r="43" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -2698,14 +2712,14 @@
     <row r="44" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="9"/>
@@ -2716,7 +2730,7 @@
     <row r="45" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -2727,14 +2741,18 @@
       <c r="I45" s="10"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="30"/>
+      <c r="D46" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>188</v>
+      </c>
       <c r="F46" s="16"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
@@ -2746,14 +2764,14 @@
         <v>0</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" s="33" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="9"/>
@@ -2764,14 +2782,14 @@
     <row r="48" spans="1:10" s="6" customFormat="1" ht="228.75" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E48" s="33" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="9"/>
@@ -2782,7 +2800,7 @@
     <row r="49" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2796,14 +2814,14 @@
     <row r="50" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" s="30" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="F50" s="16"/>
       <c r="G50" s="9"/>
@@ -2814,14 +2832,14 @@
     <row r="51" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F51" s="16"/>
       <c r="G51" s="9"/>
@@ -2832,14 +2850,14 @@
     <row r="52" spans="1:10" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="9"/>
@@ -2850,14 +2868,14 @@
     <row r="53" spans="1:10" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F53" s="16"/>
       <c r="G53" s="9"/>
@@ -2868,14 +2886,14 @@
     <row r="54" spans="1:10" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E54" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F54" s="16"/>
       <c r="G54" s="9"/>
@@ -2886,14 +2904,14 @@
     <row r="55" spans="1:10" s="6" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F55" s="16"/>
       <c r="G55" s="9"/>
@@ -2904,14 +2922,14 @@
     <row r="56" spans="1:10" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="37" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="10"/>
@@ -2922,14 +2940,14 @@
     <row r="57" spans="1:10" s="6" customFormat="1" ht="84.75" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="37" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F57" s="16"/>
       <c r="G57" s="9"/>
@@ -2940,14 +2958,14 @@
     <row r="58" spans="1:10" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="E58" s="30" t="s">
         <v>184</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>186</v>
       </c>
       <c r="F58" s="16"/>
       <c r="G58" s="9"/>
@@ -2958,7 +2976,7 @@
     <row r="59" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="37"/>
@@ -2972,7 +2990,7 @@
     <row r="60" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="17"/>
       <c r="B60" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -2986,7 +3004,7 @@
     <row r="61" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="9"/>
@@ -3000,7 +3018,7 @@
     <row r="62" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -3014,7 +3032,7 @@
     <row r="63" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -3028,7 +3046,7 @@
     <row r="64" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -3042,7 +3060,7 @@
     <row r="65" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -3056,7 +3074,7 @@
     <row r="66" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="10"/>
@@ -3070,7 +3088,7 @@
     <row r="67" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -3084,7 +3102,7 @@
     <row r="68" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -3098,7 +3116,7 @@
     <row r="69" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -3112,7 +3130,7 @@
     <row r="70" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -3126,7 +3144,7 @@
     <row r="71" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -3140,7 +3158,7 @@
     <row r="72" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -3154,7 +3172,7 @@
     <row r="73" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -3168,7 +3186,7 @@
     <row r="74" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
@@ -3182,7 +3200,7 @@
     <row r="75" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -3196,7 +3214,7 @@
     <row r="76" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -3210,7 +3228,7 @@
     <row r="77" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
@@ -3224,7 +3242,7 @@
     <row r="78" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="17"/>
       <c r="B78" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -3238,7 +3256,7 @@
     <row r="79" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="9"/>
@@ -3252,7 +3270,7 @@
     <row r="80" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
@@ -3266,7 +3284,7 @@
     <row r="81" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -3280,7 +3298,7 @@
     <row r="82" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
